--- a/Data Files/AppealNumbers.xlsx
+++ b/Data Files/AppealNumbers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\Data-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6776821F-E9DE-4331-8EC4-99C809F647C8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1390E167-8A71-4AD1-A17F-43E2F69DA12D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Appeals" sheetId="2" r:id="rId1"/>
@@ -20,48 +20,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>ReferenceNum</t>
   </si>
   <si>
+    <t>W/4003621</t>
+  </si>
+  <si>
+    <t>W/4003622</t>
+  </si>
+  <si>
+    <t>W/4003623</t>
+  </si>
+  <si>
+    <t>W/4003624</t>
+  </si>
+  <si>
+    <t>W/4003625</t>
+  </si>
+  <si>
+    <t>W/4003626</t>
+  </si>
+  <si>
+    <t>W/4003627</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>W/4002470</t>
-  </si>
-  <si>
-    <t>W/4002472</t>
-  </si>
-  <si>
-    <t>W/4002476</t>
-  </si>
-  <si>
-    <t>W/4002480</t>
-  </si>
-  <si>
-    <t>W/4002482</t>
-  </si>
-  <si>
-    <t>W/4002486</t>
-  </si>
-  <si>
-    <t>W/4002489</t>
-  </si>
-  <si>
-    <t>W/4002521</t>
-  </si>
-  <si>
-    <t>W/4002526</t>
-  </si>
-  <si>
-    <t>W/4002527</t>
-  </si>
-  <si>
-    <t>W/4002532</t>
-  </si>
-  <si>
-    <t>W/4002536</t>
+    <t>W/4003629</t>
+  </si>
+  <si>
+    <t>W/4003641</t>
+  </si>
+  <si>
+    <t>W/4003642</t>
+  </si>
+  <si>
+    <t>W/4003643</t>
+  </si>
+  <si>
+    <t>W/4003644</t>
+  </si>
+  <si>
+    <t>W/4003645</t>
+  </si>
+  <si>
+    <t>W/4003646</t>
+  </si>
+  <si>
+    <t>W/4003647</t>
+  </si>
+  <si>
+    <t>W/4003648</t>
   </si>
 </sst>
 </file>
@@ -414,78 +426,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/AppealNumbers.xlsx
+++ b/Data Files/AppealNumbers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4052" uniqueCount="2024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4236" uniqueCount="2116">
   <si>
     <t>ReferenceNum</t>
   </si>
@@ -6092,6 +6092,282 @@
   </si>
   <si>
     <t>W/4013736</t>
+  </si>
+  <si>
+    <t>W/4013741</t>
+  </si>
+  <si>
+    <t>W/4013742</t>
+  </si>
+  <si>
+    <t>W/4013743</t>
+  </si>
+  <si>
+    <t>W/4013745</t>
+  </si>
+  <si>
+    <t>W/4013747</t>
+  </si>
+  <si>
+    <t>W/4013748</t>
+  </si>
+  <si>
+    <t>W/4013749</t>
+  </si>
+  <si>
+    <t>W/4013750</t>
+  </si>
+  <si>
+    <t>W/4013751</t>
+  </si>
+  <si>
+    <t>W/4013752</t>
+  </si>
+  <si>
+    <t>W/4013753</t>
+  </si>
+  <si>
+    <t>W/4013754</t>
+  </si>
+  <si>
+    <t>W/4013755</t>
+  </si>
+  <si>
+    <t>W/4013756</t>
+  </si>
+  <si>
+    <t>W/4013757</t>
+  </si>
+  <si>
+    <t>W/4013758</t>
+  </si>
+  <si>
+    <t>W/4013759</t>
+  </si>
+  <si>
+    <t>W/4013760</t>
+  </si>
+  <si>
+    <t>W/4013761</t>
+  </si>
+  <si>
+    <t>W/4013762</t>
+  </si>
+  <si>
+    <t>W/4013763</t>
+  </si>
+  <si>
+    <t>W/4013764</t>
+  </si>
+  <si>
+    <t>W/4013765</t>
+  </si>
+  <si>
+    <t>W/4013766</t>
+  </si>
+  <si>
+    <t>W/4013767</t>
+  </si>
+  <si>
+    <t>W/4013768</t>
+  </si>
+  <si>
+    <t>W/4013769</t>
+  </si>
+  <si>
+    <t>W/4013770</t>
+  </si>
+  <si>
+    <t>W/4013771</t>
+  </si>
+  <si>
+    <t>W/4013772</t>
+  </si>
+  <si>
+    <t>W/4013773</t>
+  </si>
+  <si>
+    <t>W/4013774</t>
+  </si>
+  <si>
+    <t>W/4013775</t>
+  </si>
+  <si>
+    <t>W/4013776</t>
+  </si>
+  <si>
+    <t>W/4013777</t>
+  </si>
+  <si>
+    <t>W/4013778</t>
+  </si>
+  <si>
+    <t>W/4013779</t>
+  </si>
+  <si>
+    <t>W/4013780</t>
+  </si>
+  <si>
+    <t>D/4013782</t>
+  </si>
+  <si>
+    <t>D/4013783</t>
+  </si>
+  <si>
+    <t>D/4013784</t>
+  </si>
+  <si>
+    <t>D/4013785</t>
+  </si>
+  <si>
+    <t>Z/4013789</t>
+  </si>
+  <si>
+    <t>Z/4013790</t>
+  </si>
+  <si>
+    <t>Z/4013791</t>
+  </si>
+  <si>
+    <t>Z/4013792</t>
+  </si>
+  <si>
+    <t>W/4013793</t>
+  </si>
+  <si>
+    <t>W/4013794</t>
+  </si>
+  <si>
+    <t>W/4013795</t>
+  </si>
+  <si>
+    <t>W/4013796</t>
+  </si>
+  <si>
+    <t>Y/4013797</t>
+  </si>
+  <si>
+    <t>Y/4013798</t>
+  </si>
+  <si>
+    <t>Y/4013799</t>
+  </si>
+  <si>
+    <t>Y/4013800</t>
+  </si>
+  <si>
+    <t>W/4013801</t>
+  </si>
+  <si>
+    <t>W/4013802</t>
+  </si>
+  <si>
+    <t>W/4013803</t>
+  </si>
+  <si>
+    <t>W/4013804</t>
+  </si>
+  <si>
+    <t>W/4013805</t>
+  </si>
+  <si>
+    <t>W/4013806</t>
+  </si>
+  <si>
+    <t>W/4013807</t>
+  </si>
+  <si>
+    <t>W/4013808</t>
+  </si>
+  <si>
+    <t>W/4013809</t>
+  </si>
+  <si>
+    <t>W/4013810</t>
+  </si>
+  <si>
+    <t>W/4013812</t>
+  </si>
+  <si>
+    <t>W/4013813</t>
+  </si>
+  <si>
+    <t>W/4013814</t>
+  </si>
+  <si>
+    <t>W/4013815</t>
+  </si>
+  <si>
+    <t>W/4013816</t>
+  </si>
+  <si>
+    <t>W/4013817</t>
+  </si>
+  <si>
+    <t>W/4013819</t>
+  </si>
+  <si>
+    <t>W/4013820</t>
+  </si>
+  <si>
+    <t>W/4013821</t>
+  </si>
+  <si>
+    <t>W/4013822</t>
+  </si>
+  <si>
+    <t>W/4013823</t>
+  </si>
+  <si>
+    <t>W/4013824</t>
+  </si>
+  <si>
+    <t>W/4013825</t>
+  </si>
+  <si>
+    <t>W/4013826</t>
+  </si>
+  <si>
+    <t>W/4013827</t>
+  </si>
+  <si>
+    <t>W/4013828</t>
+  </si>
+  <si>
+    <t>W/4013829</t>
+  </si>
+  <si>
+    <t>W/4013830</t>
+  </si>
+  <si>
+    <t>W/4013831</t>
+  </si>
+  <si>
+    <t>W/4013832</t>
+  </si>
+  <si>
+    <t>W/4013833</t>
+  </si>
+  <si>
+    <t>D/4013834</t>
+  </si>
+  <si>
+    <t>D/4013835</t>
+  </si>
+  <si>
+    <t>D/4013836</t>
+  </si>
+  <si>
+    <t>Y/4013837</t>
+  </si>
+  <si>
+    <t>Y/4013838</t>
+  </si>
+  <si>
+    <t>Y/4013839</t>
+  </si>
+  <si>
+    <t>Y/4013840</t>
   </si>
 </sst>
 </file>
@@ -6444,7 +6720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
@@ -6475,6 +6751,466 @@
         <v>2023</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>2115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="300"/>
